--- a/CNCToolingDatabase/bin/Debug/net8.0/Data/PROJECT CODE MASTER.xlsx
+++ b/CNCToolingDatabase/bin/Debug/net8.0/Data/PROJECT CODE MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Tool-Master-Control\Tool-Master-Control\CNCToolingDatabase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F3389-5208-46DA-BA15-6C72A245F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5A458-7372-4C38-8F61-E2437FE87A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8271D9D6-2065-419F-AC52-7850B71D4074}"/>
   </bookViews>
@@ -446,16 +446,16 @@
   <dxfs count="7">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -549,8 +549,8 @@
     <tableColumn id="1" xr3:uid="{4A87BED8-B1B5-45DE-BB4C-8C3E6116591E}" name="No." dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{5E55A1C0-5160-4819-9AC4-BFE97197F01A}" name="Project Code" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E05168FF-5C3E-4D5A-B93D-D4D10BF8E5D9}" name="Customer" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{1036F03E-651A-430D-95B8-23A69E3389A8}" name="Project" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F3A2A34E-F6A4-4E74-965D-DE476ADF2610}" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1036F03E-651A-430D-95B8-23A69E3389A8}" name="Project" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F3A2A34E-F6A4-4E74-965D-DE476ADF2610}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -856,7 +856,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
